--- a/LR3/table_1_9.xlsx
+++ b/LR3/table_1_9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFB3C7-E200-461C-94B9-1D7194B3F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{945510B5-B838-4105-AE3D-E7E1A44FADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3D23FF7-907E-4BB6-AC87-35B2AB7C67FA}"/>
   </bookViews>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -186,7 +187,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -221,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -229,43 +230,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -646,7 +631,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -656,7 +641,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="3">
-        <f>A$1*1.1</f>
+        <f t="shared" ref="D3" si="0">A$1*1.1</f>
         <v>9.9</v>
       </c>
       <c r="E3" s="3">
@@ -686,7 +671,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -697,365 +682,392 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f>A$1*1.1</f>
+        <f>D3</f>
         <v>9.9</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E20" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E20" si="1">C4*D4</f>
         <v>688.05000000000007</v>
       </c>
       <c r="F4" s="4">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>688.05000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="3">
-        <f>A$1*1.1</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>9.9</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>683.1</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>683.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
-        <f>A$1*1.1</f>
+        <f t="shared" si="6"/>
         <v>9.9</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>678.15</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>678.15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
-        <f>A$1*1.1</f>
+        <f t="shared" si="6"/>
         <v>9.9</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>673.2</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>673.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
-        <f>A$1*1.1</f>
+        <f t="shared" si="6"/>
         <v>9.9</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>668.25</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>668.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
-        <f>A$1*1.1</f>
+        <f t="shared" si="6"/>
         <v>9.9</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>663.30000000000007</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>663.30000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="5"/>
+        <v>66.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="6"/>
+        <v>9.9</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
+        <v>658.35</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="8"/>
+        <v>44812</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
+      <c r="I10" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="3"/>
-        <v>663.30000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="4"/>
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="3">
-        <f>A$1*1.1</f>
-        <v>9.9</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
         <v>658.35</v>
       </c>
-      <c r="F10" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
-        <v>44812</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="3"/>
-        <v>658.35</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>326.7</v>
+        <f t="shared" si="1"/>
+        <v>653.4</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="3"/>
-        <v>326.7</v>
+        <f t="shared" si="4"/>
+        <v>653.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>324.22500000000002</v>
+        <f t="shared" si="1"/>
+        <v>648.45000000000005</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="3"/>
-        <v>334.22500000000002</v>
+        <f t="shared" si="4"/>
+        <v>658.45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1066,905 +1078,971 @@
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>321.75</v>
+        <f t="shared" si="1"/>
+        <v>643.5</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="3"/>
-        <v>341.75</v>
+        <f t="shared" si="4"/>
+        <v>663.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>319.27500000000003</v>
+        <f t="shared" si="1"/>
+        <v>638.55000000000007</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="3"/>
-        <v>349.27500000000003</v>
+        <f t="shared" si="4"/>
+        <v>668.55000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>316.8</v>
+        <f t="shared" si="1"/>
+        <v>633.6</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="3"/>
-        <v>356.8</v>
+        <f t="shared" si="4"/>
+        <v>673.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>314.32499999999999</v>
+        <f t="shared" si="1"/>
+        <v>628.65</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="3"/>
-        <v>364.32499999999999</v>
+        <f t="shared" si="4"/>
+        <v>678.65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>311.85000000000002</v>
+        <f t="shared" si="1"/>
+        <v>623.70000000000005</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="3"/>
-        <v>371.85</v>
+        <f t="shared" si="4"/>
+        <v>683.7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>309.375</v>
+        <f t="shared" si="1"/>
+        <v>618.75</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="3"/>
-        <v>379.375</v>
+        <f t="shared" si="4"/>
+        <v>688.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>306.90000000000003</v>
+        <f t="shared" si="1"/>
+        <v>613.80000000000007</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="3"/>
-        <v>386.90000000000003</v>
+        <f t="shared" si="4"/>
+        <v>693.80000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>304.42500000000001</v>
+        <f t="shared" si="1"/>
+        <v>608.85</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="3"/>
-        <v>394.42500000000001</v>
+        <f t="shared" si="4"/>
+        <v>698.85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E21" s="3">
         <f>C21*D21</f>
-        <v>301.95</v>
+        <v>603.9</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="3"/>
-        <v>401.95</v>
+        <f t="shared" si="4"/>
+        <v>703.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E22" s="3">
         <f>C22*D22</f>
-        <v>299.47500000000002</v>
+        <v>598.95000000000005</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="3"/>
-        <v>409.47500000000002</v>
+        <f t="shared" si="4"/>
+        <v>708.95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ref="E23:E38" si="5">C23*D23</f>
-        <v>297</v>
+        <f t="shared" ref="E23:E38" si="10">C23*D23</f>
+        <v>594</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
-        <v>417</v>
+        <f t="shared" si="4"/>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="5"/>
-        <v>294.52500000000003</v>
+        <f t="shared" si="10"/>
+        <v>589.05000000000007</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="3"/>
-        <v>424.52500000000003</v>
+        <f t="shared" si="4"/>
+        <v>719.05000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="5"/>
-        <v>292.05</v>
+        <f t="shared" si="10"/>
+        <v>584.1</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="3"/>
-        <v>432.05</v>
+        <f t="shared" si="4"/>
+        <v>724.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="5"/>
-        <v>289.57499999999999</v>
+        <f t="shared" si="10"/>
+        <v>579.15</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
-        <v>439.57499999999999</v>
+        <f t="shared" si="4"/>
+        <v>729.15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
-        <v>287.10000000000002</v>
+        <f t="shared" si="10"/>
+        <v>574.20000000000005</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="3"/>
-        <v>447.1</v>
+        <f t="shared" si="4"/>
+        <v>734.2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="5"/>
-        <v>284.625</v>
+        <f t="shared" si="10"/>
+        <v>569.25</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="3"/>
-        <v>454.625</v>
+        <f t="shared" si="4"/>
+        <v>739.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="5"/>
-        <v>282.15000000000003</v>
+        <f t="shared" si="10"/>
+        <v>564.30000000000007</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="3"/>
-        <v>462.15000000000003</v>
+        <f t="shared" si="4"/>
+        <v>744.30000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="5"/>
-        <v>279.67500000000001</v>
+        <f t="shared" si="10"/>
+        <v>559.35</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="3"/>
-        <v>469.67500000000001</v>
+        <f t="shared" si="4"/>
+        <v>749.35</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="5"/>
-        <v>277.2</v>
+        <f t="shared" si="10"/>
+        <v>554.4</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="3"/>
-        <v>477.2</v>
+        <f t="shared" si="4"/>
+        <v>754.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="5"/>
-        <v>274.72500000000002</v>
+        <f t="shared" si="10"/>
+        <v>549.45000000000005</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="3"/>
-        <v>484.72500000000002</v>
+        <f t="shared" si="4"/>
+        <v>759.45</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="5"/>
-        <v>272.25</v>
+        <f t="shared" si="10"/>
+        <v>544.5</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="3"/>
-        <v>492.25</v>
+        <f t="shared" si="4"/>
+        <v>764.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f>A$1*1.1/2</f>
-        <v>4.95</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="5"/>
-        <v>269.77500000000003</v>
+        <f t="shared" si="10"/>
+        <v>539.55000000000007</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="3"/>
-        <v>499.77500000000003</v>
+        <f t="shared" si="4"/>
+        <v>769.55000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
@@ -1972,122 +2050,131 @@
         <v>4.95</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>267.3</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>507.3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
-        <f>A$1*1.1/2</f>
+        <f t="shared" ref="D36:D37" si="11">A$1*1.1/2</f>
         <v>4.95</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>264.82499999999999</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>514.82500000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
-        <f>A$1*1.1/2</f>
+        <f t="shared" si="11"/>
         <v>4.95</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>262.35000000000002</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>522.35</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
@@ -2095,42 +2182,45 @@
         <v>4.95</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>259.875</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="3">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>529.875</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="7">
-        <f>SUM(K3:K38)</f>
-        <v>17397.45</v>
+      <c r="C40" s="5">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>24555</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6">
@@ -2139,21 +2229,21 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="2">
-        <f>MAX(E3:E38)</f>
-        <v>693</v>
+      <c r="C43">
+        <f>MAX(K3:K38)</f>
+        <v>769.55000000000007</v>
       </c>
     </row>
   </sheetData>
